--- a/results/tables/paper/scRNA-seq_qc_table_by_annotation.xlsx
+++ b/results/tables/paper/scRNA-seq_qc_table_by_annotation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Case</t>
   </si>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">MIR155HGhi</t>
   </si>
   <si>
-    <t xml:space="preserve">CCND2lo RT-like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCND2hi RT-like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-like proliferative</t>
+    <t xml:space="preserve">CCND2lo RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCND2hi RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT proliferative</t>
   </si>
   <si>
     <t xml:space="preserve">MZB1hiIGHMhiXBP1hi</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">19</t>
   </si>
   <si>
-    <t xml:space="preserve">MIR155HGhi CLL-like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIR155HGhi RT-like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP53INP1hi RT-like</t>
+    <t xml:space="preserve">MIR155HGhi CLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIR155HGhi RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP53INP1hi RT</t>
   </si>
   <si>
     <t xml:space="preserve">T3</t>
@@ -107,16 +107,28 @@
     <t xml:space="preserve">posttreatment</t>
   </si>
   <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLL_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT quiescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretreatmnt_2ndTissue</t>
+  </si>
+  <si>
     <t xml:space="preserve">365</t>
   </si>
   <si>
     <t xml:space="preserve">BCLLATLAS_29</t>
   </si>
   <si>
-    <t xml:space="preserve">CLL-like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-like quiescent</t>
+    <t xml:space="preserve">CXCR4loCD27hi RT</t>
   </si>
   <si>
     <t xml:space="preserve">3299</t>
@@ -128,16 +140,7 @@
     <t xml:space="preserve">CD83hiMIR155HGhi</t>
   </si>
   <si>
-    <t xml:space="preserve">RT-like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLL_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pretreatmnt_2ndTissue</t>
+    <t xml:space="preserve">RT</t>
   </si>
 </sst>
 </file>
@@ -1794,10 +1797,10 @@
         <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>32</v>
@@ -1806,7 +1809,7 @@
         <v>33</v>
       </c>
       <c r="F67" t="n">
-        <v>4119</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68">
@@ -1814,19 +1817,19 @@
         <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
         <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -1834,16 +1837,16 @@
         <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>32</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -1854,19 +1857,19 @@
         <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
         <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71">
@@ -1874,19 +1877,19 @@
         <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" t="s">
         <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -1894,19 +1897,19 @@
         <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
         <v>32</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1914,19 +1917,19 @@
         <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
         <v>32</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F73" t="n">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74">
@@ -1934,19 +1937,19 @@
         <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D74" t="s">
         <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F74" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -1954,19 +1957,19 @@
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D75" t="s">
         <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F75" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1983,310 +1986,310 @@
         <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F76" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F77" t="n">
-        <v>2695</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>1192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
         <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F79" t="n">
-        <v>261</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
         <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F80" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F82" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
         <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F84" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F86" t="n">
-        <v>1125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B87" t="s">
         <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>4</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F91" t="n">
-        <v>630</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92">
@@ -2297,16 +2300,16 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F92" t="n">
-        <v>247</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
@@ -2317,16 +2320,16 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -2334,19 +2337,19 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
@@ -2354,19 +2357,19 @@
         <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F95" t="n">
-        <v>264</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -2374,19 +2377,19 @@
         <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
         <v>40</v>
       </c>
-      <c r="E96" t="s">
-        <v>34</v>
-      </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -2394,16 +2397,16 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
         <v>41</v>
-      </c>
-      <c r="D97" t="s">
-        <v>40</v>
-      </c>
-      <c r="E97" t="s">
-        <v>15</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -2417,16 +2420,16 @@
         <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F98" t="n">
-        <v>246</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="99">
@@ -2434,19 +2437,19 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -2454,19 +2457,19 @@
         <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -2477,16 +2480,16 @@
         <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
         <v>40</v>
       </c>
-      <c r="E101" t="s">
-        <v>33</v>
-      </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -2497,16 +2500,16 @@
         <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F102" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2517,16 +2520,16 @@
         <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F103" t="n">
-        <v>6</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
